--- a/data/raw/election/voters-age-sex-education/2023/Nevşehir.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Nevşehir.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:54:16-10129625769" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="37">
   <si>
     <t>Nevşehir</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Ürgüp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -672,16 +677,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,10 +1020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,20 +1043,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1143,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="5">
-        <v>1.194</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1182,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="5">
-        <v>1.0469999999999999</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1222,7 +1236,7 @@
       <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>775</v>
       </c>
     </row>
@@ -1261,7 +1275,7 @@
       <c r="L9" s="4">
         <v>2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>591</v>
       </c>
     </row>
@@ -1302,7 +1316,7 @@
       <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>583</v>
       </c>
     </row>
@@ -1341,7 +1355,7 @@
       <c r="L11" s="4">
         <v>5</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>475</v>
       </c>
     </row>
@@ -1382,7 +1396,7 @@
       <c r="L12" s="4">
         <v>2</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>628</v>
       </c>
     </row>
@@ -1421,7 +1435,7 @@
       <c r="L13" s="4">
         <v>5</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>586</v>
       </c>
     </row>
@@ -1462,7 +1476,7 @@
       <c r="L14" s="4">
         <v>3</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>653</v>
       </c>
     </row>
@@ -1501,7 +1515,7 @@
       <c r="L15" s="4">
         <v>3</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>571</v>
       </c>
     </row>
@@ -1542,7 +1556,7 @@
       <c r="L16" s="4">
         <v>2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>638</v>
       </c>
     </row>
@@ -1581,7 +1595,7 @@
       <c r="L17" s="4">
         <v>4</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>575</v>
       </c>
     </row>
@@ -1622,7 +1636,7 @@
       <c r="L18" s="4">
         <v>5</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>560</v>
       </c>
     </row>
@@ -1661,7 +1675,7 @@
       <c r="L19" s="4">
         <v>3</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>557</v>
       </c>
     </row>
@@ -1702,7 +1716,7 @@
       <c r="L20" s="4">
         <v>5</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>509</v>
       </c>
     </row>
@@ -1741,7 +1755,7 @@
       <c r="L21" s="4">
         <v>3</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>537</v>
       </c>
     </row>
@@ -1782,7 +1796,7 @@
       <c r="L22" s="4">
         <v>2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>463</v>
       </c>
     </row>
@@ -1821,7 +1835,7 @@
       <c r="L23" s="4">
         <v>2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>498</v>
       </c>
     </row>
@@ -1862,7 +1876,7 @@
       <c r="L24" s="4">
         <v>5</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>391</v>
       </c>
     </row>
@@ -1901,7 +1915,7 @@
       <c r="L25" s="4">
         <v>4</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>461</v>
       </c>
     </row>
@@ -1942,7 +1956,7 @@
       <c r="L26" s="4">
         <v>3</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>343</v>
       </c>
     </row>
@@ -1981,7 +1995,7 @@
       <c r="L27" s="4">
         <v>4</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>414</v>
       </c>
     </row>
@@ -2022,7 +2036,7 @@
       <c r="L28" s="4">
         <v>4</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>401</v>
       </c>
     </row>
@@ -2061,7 +2075,7 @@
       <c r="L29" s="4">
         <v>4</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>573</v>
       </c>
     </row>
@@ -2069,39 +2083,39 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>802</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>497</v>
       </c>
       <c r="E30" s="5">
-        <v>4.5039999999999996</v>
+        <v>4504</v>
       </c>
       <c r="F30" s="5">
-        <v>1.867</v>
+        <v>1867</v>
       </c>
       <c r="G30" s="5">
-        <v>2.8759999999999999</v>
+        <v>2876</v>
       </c>
       <c r="H30" s="5">
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="I30" s="5">
+        <v>2584</v>
+      </c>
+      <c r="I30" s="6">
         <v>772</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="6">
         <v>31</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>7</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>83</v>
       </c>
       <c r="M30" s="5">
-        <v>14.023</v>
+        <v>14023</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2181,7 +2195,7 @@
         <v>25</v>
       </c>
       <c r="M32" s="5">
-        <v>1.389</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2220,7 +2234,7 @@
         <v>18</v>
       </c>
       <c r="M33" s="5">
-        <v>1.369</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2260,7 +2274,7 @@
       <c r="L34" s="4">
         <v>6</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>988</v>
       </c>
     </row>
@@ -2299,7 +2313,7 @@
       <c r="L35" s="4">
         <v>7</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>895</v>
       </c>
     </row>
@@ -2341,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="M36" s="5">
-        <v>1.0049999999999999</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2379,7 +2393,7 @@
       <c r="L37" s="4">
         <v>13</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>975</v>
       </c>
     </row>
@@ -2421,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="M38" s="5">
-        <v>1.109</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2460,7 +2474,7 @@
         <v>9</v>
       </c>
       <c r="M39" s="5">
-        <v>1.048</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2501,7 +2515,7 @@
         <v>14</v>
       </c>
       <c r="M40" s="5">
-        <v>1.0960000000000001</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2540,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="M41" s="5">
-        <v>1.081</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2581,7 +2595,7 @@
         <v>13</v>
       </c>
       <c r="M42" s="5">
-        <v>1.0880000000000001</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2619,7 +2633,7 @@
       <c r="L43" s="4">
         <v>12</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>981</v>
       </c>
     </row>
@@ -2661,7 +2675,7 @@
         <v>22</v>
       </c>
       <c r="M44" s="5">
-        <v>1.054</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2700,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="M45" s="5">
-        <v>1.0609999999999999</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2741,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="M46" s="5">
-        <v>1.07</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2780,7 +2794,7 @@
         <v>42</v>
       </c>
       <c r="M47" s="5">
-        <v>1.1950000000000001</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2821,7 +2835,7 @@
         <v>38</v>
       </c>
       <c r="M48" s="5">
-        <v>1.133</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2860,7 +2874,7 @@
         <v>43</v>
       </c>
       <c r="M49" s="5">
-        <v>1.1859999999999999</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,7 +2914,7 @@
       <c r="L50" s="4">
         <v>49</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>953</v>
       </c>
     </row>
@@ -2940,7 +2954,7 @@
         <v>39</v>
       </c>
       <c r="M51" s="5">
-        <v>1.0089999999999999</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2980,7 +2994,7 @@
       <c r="L52" s="4">
         <v>26</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>673</v>
       </c>
     </row>
@@ -3019,7 +3033,7 @@
       <c r="L53" s="4">
         <v>18</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>835</v>
       </c>
     </row>
@@ -3060,7 +3074,7 @@
       <c r="L54" s="4">
         <v>33</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>886</v>
       </c>
     </row>
@@ -3100,46 +3114,46 @@
         <v>44</v>
       </c>
       <c r="M55" s="5">
-        <v>1.401</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
         <v>608</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
         <v>986</v>
       </c>
       <c r="E56" s="5">
-        <v>6.6680000000000001</v>
+        <v>6668</v>
       </c>
       <c r="F56" s="5">
-        <v>2.2669999999999999</v>
+        <v>2267</v>
       </c>
       <c r="G56" s="5">
-        <v>3.72</v>
+        <v>3720</v>
       </c>
       <c r="H56" s="5">
-        <v>6.585</v>
+        <v>6585</v>
       </c>
       <c r="I56" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="J56" s="5">
+        <v>3700</v>
+      </c>
+      <c r="J56" s="6">
         <v>322</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>61</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>563</v>
       </c>
       <c r="M56" s="5">
-        <v>25.48</v>
+        <v>25480</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3219,7 +3233,7 @@
         <v>16</v>
       </c>
       <c r="M58" s="5">
-        <v>1.371</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3258,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="M59" s="5">
-        <v>1.3180000000000001</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3298,7 +3312,7 @@
       <c r="L60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>763</v>
       </c>
     </row>
@@ -3337,7 +3351,7 @@
       <c r="L61" s="4">
         <v>4</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>678</v>
       </c>
     </row>
@@ -3378,7 +3392,7 @@
       <c r="L62" s="4">
         <v>3</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>598</v>
       </c>
     </row>
@@ -3417,7 +3431,7 @@
       <c r="L63" s="4">
         <v>4</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>478</v>
       </c>
     </row>
@@ -3458,7 +3472,7 @@
       <c r="L64" s="4">
         <v>2</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>680</v>
       </c>
     </row>
@@ -3497,7 +3511,7 @@
       <c r="L65" s="4">
         <v>2</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>640</v>
       </c>
     </row>
@@ -3538,7 +3552,7 @@
       <c r="L66" s="4">
         <v>3</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>770</v>
       </c>
     </row>
@@ -3577,7 +3591,7 @@
       <c r="L67" s="4">
         <v>3</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>722</v>
       </c>
     </row>
@@ -3618,7 +3632,7 @@
       <c r="L68" s="4">
         <v>1</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>729</v>
       </c>
     </row>
@@ -3657,7 +3671,7 @@
       <c r="L69" s="4">
         <v>5</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>685</v>
       </c>
     </row>
@@ -3698,7 +3712,7 @@
       <c r="L70" s="4">
         <v>2</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>697</v>
       </c>
     </row>
@@ -3737,7 +3751,7 @@
       <c r="L71" s="4">
         <v>4</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>702</v>
       </c>
     </row>
@@ -3778,7 +3792,7 @@
       <c r="L72" s="4">
         <v>8</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>574</v>
       </c>
     </row>
@@ -3817,7 +3831,7 @@
       <c r="L73" s="4">
         <v>8</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>573</v>
       </c>
     </row>
@@ -3858,7 +3872,7 @@
       <c r="L74" s="4">
         <v>7</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>489</v>
       </c>
     </row>
@@ -3897,7 +3911,7 @@
       <c r="L75" s="4">
         <v>3</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>513</v>
       </c>
     </row>
@@ -3938,7 +3952,7 @@
       <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>363</v>
       </c>
     </row>
@@ -3977,7 +3991,7 @@
       <c r="L77" s="4">
         <v>2</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>444</v>
       </c>
     </row>
@@ -4018,7 +4032,7 @@
       <c r="L78" s="4">
         <v>2</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>285</v>
       </c>
     </row>
@@ -4057,7 +4071,7 @@
       <c r="L79" s="4">
         <v>5</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>337</v>
       </c>
     </row>
@@ -4098,7 +4112,7 @@
       <c r="L80" s="4">
         <v>3</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>272</v>
       </c>
     </row>
@@ -4137,7 +4151,7 @@
       <c r="L81" s="4">
         <v>4</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>527</v>
       </c>
     </row>
@@ -4145,39 +4159,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>563</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>569</v>
       </c>
       <c r="E82" s="5">
-        <v>4.8659999999999997</v>
+        <v>4866</v>
       </c>
       <c r="F82" s="5">
-        <v>2.1110000000000002</v>
+        <v>2111</v>
       </c>
       <c r="G82" s="5">
-        <v>2.8290000000000002</v>
+        <v>2829</v>
       </c>
       <c r="H82" s="5">
-        <v>2.9769999999999999</v>
+        <v>2977</v>
       </c>
       <c r="I82" s="5">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="J82" s="5">
+        <v>1086</v>
+      </c>
+      <c r="J82" s="6">
         <v>102</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>8</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>97</v>
       </c>
       <c r="M82" s="5">
-        <v>15.208</v>
+        <v>15208</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4256,7 +4270,7 @@
       <c r="L84" s="4">
         <v>16</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="6">
         <v>948</v>
       </c>
     </row>
@@ -4295,7 +4309,7 @@
       <c r="L85" s="4">
         <v>3</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="6">
         <v>980</v>
       </c>
     </row>
@@ -4336,7 +4350,7 @@
       <c r="L86" s="4">
         <v>8</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="6">
         <v>586</v>
       </c>
     </row>
@@ -4375,7 +4389,7 @@
       <c r="L87" s="4">
         <v>3</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="6">
         <v>601</v>
       </c>
     </row>
@@ -4416,7 +4430,7 @@
       <c r="L88" s="4">
         <v>7</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>561</v>
       </c>
     </row>
@@ -4455,7 +4469,7 @@
       <c r="L89" s="4">
         <v>7</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>543</v>
       </c>
     </row>
@@ -4496,7 +4510,7 @@
       <c r="L90" s="4">
         <v>10</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>668</v>
       </c>
     </row>
@@ -4535,7 +4549,7 @@
       <c r="L91" s="4">
         <v>9</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>590</v>
       </c>
     </row>
@@ -4576,7 +4590,7 @@
       <c r="L92" s="4">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>688</v>
       </c>
     </row>
@@ -4615,7 +4629,7 @@
       <c r="L93" s="4">
         <v>8</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>656</v>
       </c>
     </row>
@@ -4656,7 +4670,7 @@
       <c r="L94" s="4">
         <v>13</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>670</v>
       </c>
     </row>
@@ -4695,7 +4709,7 @@
       <c r="L95" s="4">
         <v>12</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>653</v>
       </c>
     </row>
@@ -4736,7 +4750,7 @@
       <c r="L96" s="4">
         <v>18</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>739</v>
       </c>
     </row>
@@ -4775,7 +4789,7 @@
       <c r="L97" s="4">
         <v>18</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>722</v>
       </c>
     </row>
@@ -4816,7 +4830,7 @@
       <c r="L98" s="4">
         <v>29</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>715</v>
       </c>
     </row>
@@ -4855,7 +4869,7 @@
       <c r="L99" s="4">
         <v>20</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>822</v>
       </c>
     </row>
@@ -4896,7 +4910,7 @@
       <c r="L100" s="4">
         <v>23</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>730</v>
       </c>
     </row>
@@ -4935,7 +4949,7 @@
       <c r="L101" s="4">
         <v>40</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>825</v>
       </c>
     </row>
@@ -4976,7 +4990,7 @@
       <c r="L102" s="4">
         <v>57</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>610</v>
       </c>
     </row>
@@ -5015,7 +5029,7 @@
       <c r="L103" s="4">
         <v>31</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>736</v>
       </c>
     </row>
@@ -5056,7 +5070,7 @@
       <c r="L104" s="4">
         <v>36</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>530</v>
       </c>
     </row>
@@ -5095,7 +5109,7 @@
       <c r="L105" s="4">
         <v>39</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>623</v>
       </c>
     </row>
@@ -5136,7 +5150,7 @@
       <c r="L106" s="4">
         <v>28</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>601</v>
       </c>
     </row>
@@ -5175,7 +5189,7 @@
       <c r="L107" s="4">
         <v>18</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>888</v>
       </c>
     </row>
@@ -5183,39 +5197,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
         <v>501</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="6">
         <v>721</v>
       </c>
       <c r="E108" s="5">
-        <v>5.07</v>
+        <v>5070</v>
       </c>
       <c r="F108" s="5">
-        <v>1.7070000000000001</v>
+        <v>1707</v>
       </c>
       <c r="G108" s="5">
-        <v>2.5110000000000001</v>
+        <v>2511</v>
       </c>
       <c r="H108" s="5">
-        <v>3.6869999999999998</v>
+        <v>3687</v>
       </c>
       <c r="I108" s="5">
-        <v>1.885</v>
-      </c>
-      <c r="J108" s="5">
+        <v>1885</v>
+      </c>
+      <c r="J108" s="6">
         <v>123</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>12</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>468</v>
       </c>
       <c r="M108" s="5">
-        <v>16.684999999999999</v>
+        <v>16685</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5294,7 +5308,7 @@
       <c r="L110" s="4">
         <v>5</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="6">
         <v>379</v>
       </c>
     </row>
@@ -5333,7 +5347,7 @@
       <c r="L111" s="4">
         <v>3</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="6">
         <v>363</v>
       </c>
     </row>
@@ -5374,7 +5388,7 @@
       <c r="L112" s="4">
         <v>3</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="6">
         <v>250</v>
       </c>
     </row>
@@ -5413,7 +5427,7 @@
       <c r="L113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="6">
         <v>212</v>
       </c>
     </row>
@@ -5454,7 +5468,7 @@
       <c r="L114" s="4">
         <v>1</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="6">
         <v>229</v>
       </c>
     </row>
@@ -5493,7 +5507,7 @@
       <c r="L115" s="4">
         <v>1</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="6">
         <v>194</v>
       </c>
     </row>
@@ -5534,7 +5548,7 @@
       <c r="L116" s="4">
         <v>4</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="6">
         <v>259</v>
       </c>
     </row>
@@ -5573,7 +5587,7 @@
       <c r="L117" s="4">
         <v>1</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="6">
         <v>219</v>
       </c>
     </row>
@@ -5614,7 +5628,7 @@
       <c r="L118" s="4">
         <v>3</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="6">
         <v>306</v>
       </c>
     </row>
@@ -5653,7 +5667,7 @@
       <c r="L119" s="4">
         <v>1</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="6">
         <v>300</v>
       </c>
     </row>
@@ -5694,7 +5708,7 @@
       <c r="L120" s="4">
         <v>7</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="6">
         <v>310</v>
       </c>
     </row>
@@ -5733,7 +5747,7 @@
       <c r="L121" s="4">
         <v>4</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="6">
         <v>276</v>
       </c>
     </row>
@@ -5774,7 +5788,7 @@
       <c r="L122" s="4">
         <v>13</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="6">
         <v>385</v>
       </c>
     </row>
@@ -5813,7 +5827,7 @@
       <c r="L123" s="4">
         <v>10</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="6">
         <v>390</v>
       </c>
     </row>
@@ -5854,7 +5868,7 @@
       <c r="L124" s="4">
         <v>12</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="6">
         <v>431</v>
       </c>
     </row>
@@ -5893,7 +5907,7 @@
       <c r="L125" s="4">
         <v>12</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="6">
         <v>442</v>
       </c>
     </row>
@@ -5934,7 +5948,7 @@
       <c r="L126" s="4">
         <v>16</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="6">
         <v>466</v>
       </c>
     </row>
@@ -5973,7 +5987,7 @@
       <c r="L127" s="4">
         <v>13</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>503</v>
       </c>
     </row>
@@ -6014,7 +6028,7 @@
       <c r="L128" s="4">
         <v>22</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>471</v>
       </c>
     </row>
@@ -6053,7 +6067,7 @@
       <c r="L129" s="4">
         <v>12</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>445</v>
       </c>
     </row>
@@ -6094,7 +6108,7 @@
       <c r="L130" s="4">
         <v>16</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>377</v>
       </c>
     </row>
@@ -6133,7 +6147,7 @@
       <c r="L131" s="4">
         <v>24</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>427</v>
       </c>
     </row>
@@ -6174,7 +6188,7 @@
       <c r="L132" s="4">
         <v>21</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>482</v>
       </c>
     </row>
@@ -6213,7 +6227,7 @@
       <c r="L133" s="4">
         <v>23</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="6">
         <v>709</v>
       </c>
     </row>
@@ -6221,39 +6235,39 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
         <v>278</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="6">
         <v>324</v>
       </c>
       <c r="E134" s="5">
-        <v>3.0270000000000001</v>
-      </c>
-      <c r="F134" s="5">
+        <v>3027</v>
+      </c>
+      <c r="F134" s="6">
         <v>611</v>
       </c>
       <c r="G134" s="5">
-        <v>1.0169999999999999</v>
+        <v>1017</v>
       </c>
       <c r="H134" s="5">
-        <v>2.2549999999999999</v>
+        <v>2255</v>
       </c>
       <c r="I134" s="5">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="J134" s="5">
+        <v>1003</v>
+      </c>
+      <c r="J134" s="6">
         <v>68</v>
       </c>
-      <c r="K134" s="5">
-        <v>15</v>
-      </c>
-      <c r="L134" s="5">
+      <c r="K134" s="6">
+        <v>15</v>
+      </c>
+      <c r="L134" s="6">
         <v>227</v>
       </c>
       <c r="M134" s="5">
-        <v>8.8249999999999993</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6332,7 +6346,7 @@
       <c r="L136" s="4">
         <v>6</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="6">
         <v>535</v>
       </c>
     </row>
@@ -6371,7 +6385,7 @@
       <c r="L137" s="4">
         <v>3</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="6">
         <v>508</v>
       </c>
     </row>
@@ -6412,7 +6426,7 @@
       <c r="L138" s="4">
         <v>9</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="6">
         <v>344</v>
       </c>
     </row>
@@ -6451,7 +6465,7 @@
       <c r="L139" s="4">
         <v>2</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="6">
         <v>328</v>
       </c>
     </row>
@@ -6492,7 +6506,7 @@
       <c r="L140" s="4">
         <v>2</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="6">
         <v>338</v>
       </c>
     </row>
@@ -6531,7 +6545,7 @@
       <c r="L141" s="4">
         <v>3</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="6">
         <v>372</v>
       </c>
     </row>
@@ -6572,7 +6586,7 @@
       <c r="L142" s="4">
         <v>4</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="6">
         <v>374</v>
       </c>
     </row>
@@ -6611,7 +6625,7 @@
       <c r="L143" s="4">
         <v>3</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="6">
         <v>325</v>
       </c>
     </row>
@@ -6652,7 +6666,7 @@
       <c r="L144" s="4">
         <v>12</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="6">
         <v>429</v>
       </c>
     </row>
@@ -6691,7 +6705,7 @@
       <c r="L145" s="4">
         <v>7</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="6">
         <v>361</v>
       </c>
     </row>
@@ -6732,7 +6746,7 @@
       <c r="L146" s="4">
         <v>12</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="6">
         <v>380</v>
       </c>
     </row>
@@ -6771,7 +6785,7 @@
       <c r="L147" s="4">
         <v>15</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="6">
         <v>399</v>
       </c>
     </row>
@@ -6812,7 +6826,7 @@
       <c r="L148" s="4">
         <v>13</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="6">
         <v>460</v>
       </c>
     </row>
@@ -6851,7 +6865,7 @@
       <c r="L149" s="4">
         <v>17</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="6">
         <v>424</v>
       </c>
     </row>
@@ -6892,7 +6906,7 @@
       <c r="L150" s="4">
         <v>20</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="6">
         <v>508</v>
       </c>
     </row>
@@ -6931,7 +6945,7 @@
       <c r="L151" s="4">
         <v>17</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="6">
         <v>520</v>
       </c>
     </row>
@@ -6972,7 +6986,7 @@
       <c r="L152" s="4">
         <v>15</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="6">
         <v>554</v>
       </c>
     </row>
@@ -7011,7 +7025,7 @@
       <c r="L153" s="4">
         <v>14</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="6">
         <v>480</v>
       </c>
     </row>
@@ -7052,7 +7066,7 @@
       <c r="L154" s="4">
         <v>18</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>442</v>
       </c>
     </row>
@@ -7091,7 +7105,7 @@
       <c r="L155" s="4">
         <v>23</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="6">
         <v>496</v>
       </c>
     </row>
@@ -7132,7 +7146,7 @@
       <c r="L156" s="4">
         <v>19</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>368</v>
       </c>
     </row>
@@ -7171,7 +7185,7 @@
       <c r="L157" s="4">
         <v>21</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>458</v>
       </c>
     </row>
@@ -7212,7 +7226,7 @@
       <c r="L158" s="4">
         <v>18</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="6">
         <v>435</v>
       </c>
     </row>
@@ -7251,7 +7265,7 @@
       <c r="L159" s="4">
         <v>21</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="6">
         <v>674</v>
       </c>
     </row>
@@ -7259,39 +7273,39 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
         <v>308</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="6">
         <v>398</v>
       </c>
       <c r="E160" s="5">
-        <v>3.5329999999999999</v>
-      </c>
-      <c r="F160" s="5">
+        <v>3533</v>
+      </c>
+      <c r="F160" s="6">
         <v>860</v>
       </c>
       <c r="G160" s="5">
-        <v>1.304</v>
+        <v>1304</v>
       </c>
       <c r="H160" s="5">
-        <v>2.4710000000000001</v>
+        <v>2471</v>
       </c>
       <c r="I160" s="5">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="J160" s="5">
+        <v>1233</v>
+      </c>
+      <c r="J160" s="6">
         <v>102</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>9</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>294</v>
       </c>
       <c r="M160" s="5">
-        <v>10.512</v>
+        <v>10512</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7352,11 +7366,11 @@
       <c r="F162" s="4">
         <v>1</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.663</v>
-      </c>
-      <c r="H162" s="4">
-        <v>4.673</v>
+      <c r="G162" s="9">
+        <v>1663</v>
+      </c>
+      <c r="H162" s="9">
+        <v>4673</v>
       </c>
       <c r="I162" s="4">
         <v>982</v>
@@ -7371,7 +7385,7 @@
         <v>57</v>
       </c>
       <c r="M162" s="5">
-        <v>7.4249999999999998</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7391,14 +7405,14 @@
       <c r="F163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="4">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="H163" s="4">
-        <v>4.7009999999999996</v>
-      </c>
-      <c r="I163" s="4">
-        <v>1.6759999999999999</v>
+      <c r="G163" s="9">
+        <v>1326</v>
+      </c>
+      <c r="H163" s="9">
+        <v>4701</v>
+      </c>
+      <c r="I163" s="9">
+        <v>1676</v>
       </c>
       <c r="J163" s="4">
         <v>9</v>
@@ -7410,7 +7424,7 @@
         <v>34</v>
       </c>
       <c r="M163" s="5">
-        <v>7.7839999999999998</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7432,14 +7446,14 @@
       <c r="F164" s="4">
         <v>21</v>
       </c>
-      <c r="G164" s="4">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="H164" s="4">
-        <v>1.6919999999999999</v>
-      </c>
-      <c r="I164" s="4">
-        <v>2.1080000000000001</v>
+      <c r="G164" s="9">
+        <v>1247</v>
+      </c>
+      <c r="H164" s="9">
+        <v>1692</v>
+      </c>
+      <c r="I164" s="9">
+        <v>2108</v>
       </c>
       <c r="J164" s="4">
         <v>173</v>
@@ -7451,7 +7465,7 @@
         <v>31</v>
       </c>
       <c r="M164" s="5">
-        <v>5.2990000000000004</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7471,14 +7485,14 @@
       <c r="F165" s="4">
         <v>48</v>
       </c>
-      <c r="G165" s="4">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="H165" s="4">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="I165" s="4">
-        <v>2.8889999999999998</v>
+      <c r="G165" s="9">
+        <v>1126</v>
+      </c>
+      <c r="H165" s="9">
+        <v>1308</v>
+      </c>
+      <c r="I165" s="9">
+        <v>2889</v>
       </c>
       <c r="J165" s="4">
         <v>247</v>
@@ -7490,7 +7504,7 @@
         <v>43</v>
       </c>
       <c r="M165" s="5">
-        <v>5.7610000000000001</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7515,11 +7529,11 @@
       <c r="G166" s="4">
         <v>522</v>
       </c>
-      <c r="H166" s="4">
-        <v>1.659</v>
-      </c>
-      <c r="I166" s="4">
-        <v>1.9359999999999999</v>
+      <c r="H166" s="9">
+        <v>1659</v>
+      </c>
+      <c r="I166" s="9">
+        <v>1936</v>
       </c>
       <c r="J166" s="4">
         <v>284</v>
@@ -7531,7 +7545,7 @@
         <v>37</v>
       </c>
       <c r="M166" s="5">
-        <v>5.2679999999999998</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7548,17 +7562,17 @@
       <c r="E167" s="4">
         <v>44</v>
       </c>
-      <c r="F167" s="4">
-        <v>1.0109999999999999</v>
+      <c r="F167" s="9">
+        <v>1011</v>
       </c>
       <c r="G167" s="4">
         <v>465</v>
       </c>
-      <c r="H167" s="4">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="I167" s="4">
-        <v>2.2229999999999999</v>
+      <c r="H167" s="9">
+        <v>1368</v>
+      </c>
+      <c r="I167" s="9">
+        <v>2223</v>
       </c>
       <c r="J167" s="4">
         <v>302</v>
@@ -7570,7 +7584,7 @@
         <v>33</v>
       </c>
       <c r="M167" s="5">
-        <v>5.5350000000000001</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7595,11 +7609,11 @@
       <c r="G168" s="4">
         <v>497</v>
       </c>
-      <c r="H168" s="4">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="I168" s="4">
-        <v>1.746</v>
+      <c r="H168" s="9">
+        <v>1844</v>
+      </c>
+      <c r="I168" s="9">
+        <v>1746</v>
       </c>
       <c r="J168" s="4">
         <v>358</v>
@@ -7611,7 +7625,7 @@
         <v>32</v>
       </c>
       <c r="M168" s="5">
-        <v>5.7439999999999998</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7634,11 +7648,11 @@
       <c r="G169" s="4">
         <v>578</v>
       </c>
-      <c r="H169" s="4">
-        <v>1.603</v>
-      </c>
-      <c r="I169" s="4">
-        <v>1.736</v>
+      <c r="H169" s="9">
+        <v>1603</v>
+      </c>
+      <c r="I169" s="9">
+        <v>1736</v>
       </c>
       <c r="J169" s="4">
         <v>288</v>
@@ -7650,7 +7664,7 @@
         <v>35</v>
       </c>
       <c r="M169" s="5">
-        <v>6.0149999999999997</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7675,11 +7689,11 @@
       <c r="G170" s="4">
         <v>825</v>
       </c>
-      <c r="H170" s="4">
-        <v>1.9470000000000001</v>
-      </c>
-      <c r="I170" s="4">
-        <v>1.403</v>
+      <c r="H170" s="9">
+        <v>1947</v>
+      </c>
+      <c r="I170" s="9">
+        <v>1403</v>
       </c>
       <c r="J170" s="4">
         <v>310</v>
@@ -7691,7 +7705,7 @@
         <v>30</v>
       </c>
       <c r="M170" s="5">
-        <v>5.7229999999999999</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7705,8 +7719,8 @@
       <c r="D171" s="4">
         <v>22</v>
       </c>
-      <c r="E171" s="4">
-        <v>1.012</v>
+      <c r="E171" s="9">
+        <v>1012</v>
       </c>
       <c r="F171" s="4">
         <v>676</v>
@@ -7714,11 +7728,11 @@
       <c r="G171" s="4">
         <v>943</v>
       </c>
-      <c r="H171" s="4">
-        <v>1.627</v>
-      </c>
-      <c r="I171" s="4">
-        <v>1.22</v>
+      <c r="H171" s="9">
+        <v>1627</v>
+      </c>
+      <c r="I171" s="9">
+        <v>1220</v>
       </c>
       <c r="J171" s="4">
         <v>231</v>
@@ -7730,7 +7744,7 @@
         <v>34</v>
       </c>
       <c r="M171" s="5">
-        <v>5.8529999999999998</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7755,11 +7769,11 @@
       <c r="G172" s="4">
         <v>693</v>
       </c>
-      <c r="H172" s="4">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="I172" s="4">
-        <v>1.173</v>
+      <c r="H172" s="9">
+        <v>1568</v>
+      </c>
+      <c r="I172" s="9">
+        <v>1173</v>
       </c>
       <c r="J172" s="4">
         <v>185</v>
@@ -7771,7 +7785,7 @@
         <v>32</v>
       </c>
       <c r="M172" s="5">
-        <v>4.8789999999999996</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7785,8 +7799,8 @@
       <c r="D173" s="4">
         <v>22</v>
       </c>
-      <c r="E173" s="4">
-        <v>1.1479999999999999</v>
+      <c r="E173" s="9">
+        <v>1148</v>
       </c>
       <c r="F173" s="4">
         <v>687</v>
@@ -7794,8 +7808,8 @@
       <c r="G173" s="4">
         <v>854</v>
       </c>
-      <c r="H173" s="4">
-        <v>1.2689999999999999</v>
+      <c r="H173" s="9">
+        <v>1269</v>
       </c>
       <c r="I173" s="4">
         <v>732</v>
@@ -7810,7 +7824,7 @@
         <v>34</v>
       </c>
       <c r="M173" s="5">
-        <v>4.8769999999999998</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7835,8 +7849,8 @@
       <c r="G174" s="4">
         <v>804</v>
       </c>
-      <c r="H174" s="4">
-        <v>1.1439999999999999</v>
+      <c r="H174" s="9">
+        <v>1144</v>
       </c>
       <c r="I174" s="4">
         <v>925</v>
@@ -7851,7 +7865,7 @@
         <v>57</v>
       </c>
       <c r="M174" s="5">
-        <v>4.3819999999999997</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7865,8 +7879,8 @@
       <c r="D175" s="4">
         <v>49</v>
       </c>
-      <c r="E175" s="4">
-        <v>1.512</v>
+      <c r="E175" s="9">
+        <v>1512</v>
       </c>
       <c r="F175" s="4">
         <v>680</v>
@@ -7890,7 +7904,7 @@
         <v>69</v>
       </c>
       <c r="M175" s="5">
-        <v>4.3769999999999998</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7931,7 +7945,7 @@
         <v>59</v>
       </c>
       <c r="M176" s="5">
-        <v>3.8639999999999999</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7945,8 +7959,8 @@
       <c r="D177" s="4">
         <v>100</v>
       </c>
-      <c r="E177" s="4">
-        <v>1.925</v>
+      <c r="E177" s="9">
+        <v>1925</v>
       </c>
       <c r="F177" s="4">
         <v>488</v>
@@ -7970,7 +7984,7 @@
         <v>54</v>
       </c>
       <c r="M177" s="5">
-        <v>3.9340000000000002</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7986,8 +8000,8 @@
       <c r="D178" s="4">
         <v>23</v>
       </c>
-      <c r="E178" s="4">
-        <v>1.0489999999999999</v>
+      <c r="E178" s="9">
+        <v>1049</v>
       </c>
       <c r="F178" s="4">
         <v>376</v>
@@ -8011,7 +8025,7 @@
         <v>58</v>
       </c>
       <c r="M178" s="5">
-        <v>3.0710000000000002</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8025,8 +8039,8 @@
       <c r="D179" s="4">
         <v>171</v>
       </c>
-      <c r="E179" s="4">
-        <v>1.946</v>
+      <c r="E179" s="9">
+        <v>1946</v>
       </c>
       <c r="F179" s="4">
         <v>224</v>
@@ -8050,7 +8064,7 @@
         <v>64</v>
       </c>
       <c r="M179" s="5">
-        <v>3.2839999999999998</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8066,8 +8080,8 @@
       <c r="D180" s="4">
         <v>41</v>
       </c>
-      <c r="E180" s="4">
-        <v>1.048</v>
+      <c r="E180" s="9">
+        <v>1048</v>
       </c>
       <c r="F180" s="4">
         <v>133</v>
@@ -8091,7 +8105,7 @@
         <v>56</v>
       </c>
       <c r="M180" s="5">
-        <v>2.2879999999999998</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8105,8 +8119,8 @@
       <c r="D181" s="4">
         <v>268</v>
       </c>
-      <c r="E181" s="4">
-        <v>1.552</v>
+      <c r="E181" s="9">
+        <v>1552</v>
       </c>
       <c r="F181" s="4">
         <v>70</v>
@@ -8130,7 +8144,7 @@
         <v>39</v>
       </c>
       <c r="M181" s="5">
-        <v>2.4910000000000001</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8171,7 +8185,7 @@
         <v>29</v>
       </c>
       <c r="M182" s="5">
-        <v>1.722</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8185,8 +8199,8 @@
       <c r="D183" s="4">
         <v>313</v>
       </c>
-      <c r="E183" s="4">
-        <v>1.103</v>
+      <c r="E183" s="9">
+        <v>1103</v>
       </c>
       <c r="F183" s="4">
         <v>21</v>
@@ -8210,7 +8224,7 @@
         <v>36</v>
       </c>
       <c r="M183" s="5">
-        <v>1.921</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8226,8 +8240,8 @@
       <c r="D184" s="4">
         <v>151</v>
       </c>
-      <c r="E184" s="4">
-        <v>1.141</v>
+      <c r="E184" s="9">
+        <v>1141</v>
       </c>
       <c r="F184" s="4">
         <v>31</v>
@@ -8251,7 +8265,7 @@
         <v>38</v>
       </c>
       <c r="M184" s="5">
-        <v>1.831</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8265,8 +8279,8 @@
       <c r="D185" s="4">
         <v>562</v>
       </c>
-      <c r="E185" s="4">
-        <v>1.0980000000000001</v>
+      <c r="E185" s="9">
+        <v>1098</v>
       </c>
       <c r="F185" s="4">
         <v>9</v>
@@ -8290,46 +8304,46 @@
         <v>43</v>
       </c>
       <c r="M185" s="5">
-        <v>2.7719999999999998</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
-        <v>1.857</v>
+        <v>1857</v>
       </c>
       <c r="D186" s="5">
-        <v>1.996</v>
+        <v>1996</v>
       </c>
       <c r="E186" s="5">
-        <v>18.952000000000002</v>
+        <v>18952</v>
       </c>
       <c r="F186" s="5">
-        <v>9.8729999999999993</v>
+        <v>9873</v>
       </c>
       <c r="G186" s="5">
-        <v>15.103999999999999</v>
+        <v>15104</v>
       </c>
       <c r="H186" s="5">
-        <v>30.849</v>
+        <v>30849</v>
       </c>
       <c r="I186" s="5">
-        <v>23.056999999999999</v>
+        <v>23057</v>
       </c>
       <c r="J186" s="5">
-        <v>2.782</v>
-      </c>
-      <c r="K186" s="5">
+        <v>2782</v>
+      </c>
+      <c r="K186" s="6">
         <v>596</v>
       </c>
       <c r="L186" s="5">
-        <v>1.034</v>
+        <v>1034</v>
       </c>
       <c r="M186" s="5">
-        <v>106.1</v>
+        <v>106100</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8393,8 +8407,8 @@
       <c r="G188" s="4">
         <v>340</v>
       </c>
-      <c r="H188" s="4">
-        <v>1.0640000000000001</v>
+      <c r="H188" s="9">
+        <v>1064</v>
       </c>
       <c r="I188" s="4">
         <v>264</v>
@@ -8409,7 +8423,7 @@
         <v>12</v>
       </c>
       <c r="M188" s="5">
-        <v>1.6879999999999999</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8432,8 +8446,8 @@
       <c r="G189" s="4">
         <v>220</v>
       </c>
-      <c r="H189" s="4">
-        <v>1.0409999999999999</v>
+      <c r="H189" s="9">
+        <v>1041</v>
       </c>
       <c r="I189" s="4">
         <v>374</v>
@@ -8448,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="M189" s="5">
-        <v>1.6619999999999999</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8489,7 +8503,7 @@
         <v>6</v>
       </c>
       <c r="M190" s="5">
-        <v>1.2629999999999999</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8528,7 +8542,7 @@
         <v>9</v>
       </c>
       <c r="M191" s="5">
-        <v>1.161</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8569,7 +8583,7 @@
         <v>4</v>
       </c>
       <c r="M192" s="5">
-        <v>1.1100000000000001</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8608,7 +8622,7 @@
         <v>14</v>
       </c>
       <c r="M193" s="5">
-        <v>1.0920000000000001</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8649,7 +8663,7 @@
         <v>8</v>
       </c>
       <c r="M194" s="5">
-        <v>1.33</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8688,7 +8702,7 @@
         <v>19</v>
       </c>
       <c r="M195" s="5">
-        <v>1.343</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8729,7 +8743,7 @@
         <v>8</v>
       </c>
       <c r="M196" s="5">
-        <v>1.3029999999999999</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8768,7 +8782,7 @@
         <v>12</v>
       </c>
       <c r="M197" s="5">
-        <v>1.325</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8809,7 +8823,7 @@
         <v>13</v>
       </c>
       <c r="M198" s="5">
-        <v>1.256</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8848,7 +8862,7 @@
         <v>11</v>
       </c>
       <c r="M199" s="5">
-        <v>1.1839999999999999</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8889,7 +8903,7 @@
         <v>22</v>
       </c>
       <c r="M200" s="5">
-        <v>1.2270000000000001</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8928,7 +8942,7 @@
         <v>23</v>
       </c>
       <c r="M201" s="5">
-        <v>1.226</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8969,7 +8983,7 @@
         <v>28</v>
       </c>
       <c r="M202" s="5">
-        <v>1.161</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9008,7 +9022,7 @@
         <v>25</v>
       </c>
       <c r="M203" s="5">
-        <v>1.2569999999999999</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9049,7 +9063,7 @@
         <v>19</v>
       </c>
       <c r="M204" s="5">
-        <v>1.1220000000000001</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9088,7 +9102,7 @@
         <v>18</v>
       </c>
       <c r="M205" s="5">
-        <v>1.0820000000000001</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9128,7 +9142,7 @@
       <c r="L206" s="4">
         <v>16</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="6">
         <v>891</v>
       </c>
     </row>
@@ -9167,7 +9181,7 @@
       <c r="L207" s="4">
         <v>22</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="6">
         <v>930</v>
       </c>
     </row>
@@ -9208,7 +9222,7 @@
       <c r="L208" s="4">
         <v>9</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>624</v>
       </c>
     </row>
@@ -9247,7 +9261,7 @@
       <c r="L209" s="4">
         <v>12</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="6">
         <v>796</v>
       </c>
     </row>
@@ -9288,7 +9302,7 @@
       <c r="L210" s="4">
         <v>31</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="6">
         <v>991</v>
       </c>
     </row>
@@ -9328,46 +9342,56 @@
         <v>28</v>
       </c>
       <c r="M211" s="5">
-        <v>1.5029999999999999</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
         <v>389</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="6">
         <v>862</v>
       </c>
       <c r="E212" s="5">
-        <v>7.45</v>
+        <v>7450</v>
       </c>
       <c r="F212" s="5">
-        <v>2.206</v>
+        <v>2206</v>
       </c>
       <c r="G212" s="5">
-        <v>3.5529999999999999</v>
+        <v>3553</v>
       </c>
       <c r="H212" s="5">
-        <v>7.9939999999999998</v>
+        <v>7994</v>
       </c>
       <c r="I212" s="5">
-        <v>5.1369999999999996</v>
-      </c>
-      <c r="J212" s="5">
+        <v>5137</v>
+      </c>
+      <c r="J212" s="6">
         <v>462</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="6">
         <v>93</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>381</v>
       </c>
       <c r="M212" s="5">
-        <v>28.527000000000001</v>
+        <v>28527</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
